--- a/Data/Janzen-Connell/SeedlingDATA2020_2024.xlsx
+++ b/Data/Janzen-Connell/SeedlingDATA2020_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Coexistence-in-BC-Forests/Data/Janzen-Connell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdre/Documents/github/coexistBCforests/Data/Janzen-Connell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1723A322-85C3-EE4F-8442-6AA2B4A12F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721F040E-8931-8247-9A5B-1CED2898ACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33860" yWindow="600" windowWidth="30480" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,9 +347,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -671,8 +670,8 @@
   <dimension ref="A1:N373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204:A373"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K216" sqref="K216:K373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1050,112 +1049,106 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>22</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>100</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>32</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>42</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>43</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>42</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>220</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>49</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>51</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>63</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>75</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>230</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1202,7 +1195,7 @@
       <c r="E18">
         <v>42</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>49</v>
       </c>
       <c r="G18">
@@ -2154,10 +2147,9 @@
       <c r="F50">
         <v>161</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>61</v>
       </c>
-      <c r="H50" s="1"/>
       <c r="I50">
         <v>140</v>
       </c>
@@ -2298,7 +2290,7 @@
       <c r="E54">
         <v>54</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>76</v>
       </c>
       <c r="G54">
@@ -2631,7 +2623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2660,7 +2652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2689,43 +2681,42 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="1">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
         <v>6</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>42</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>49</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>38</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67">
         <v>32</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>151</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" t="s">
         <v>34</v>
       </c>
-      <c r="K67" s="1">
-        <v>1</v>
-      </c>
-      <c r="L67" s="1" t="s">
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
         <v>52</v>
       </c>
-      <c r="N67"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2763,7 +2754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2792,7 +2783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2821,7 +2812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2850,7 +2841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2867,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2905,7 +2896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2943,7 +2934,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2981,7 +2972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3019,7 +3010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3030,7 +3021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3047,67 +3038,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="1">
-        <v>7</v>
-      </c>
-      <c r="C79" s="1" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
         <v>18</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79">
         <v>292</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79">
         <v>376</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79">
         <v>238</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79" s="1">
-        <v>1</v>
-      </c>
-      <c r="L79" s="1" t="s">
+      <c r="J79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
         <v>30</v>
       </c>
-      <c r="N79"/>
-    </row>
-    <row r="80" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="1">
-        <v>7</v>
-      </c>
-      <c r="C80" s="1" t="s">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80">
         <v>282</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80">
         <v>341</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80">
         <v>251</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80" s="1">
-        <v>1</v>
-      </c>
-      <c r="L80" s="1" t="s">
+      <c r="J80" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
         <v>41</v>
       </c>
-      <c r="N80"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3139,7 +3128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3171,7 +3160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3209,7 +3198,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3244,7 +3233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3282,37 +3271,36 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="1">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
         <v>8</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86">
         <v>58</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" t="s">
         <v>55</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86">
         <v>261</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K86" s="1">
-        <v>1</v>
-      </c>
-      <c r="L86" s="1" t="s">
+      <c r="J86" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
         <v>17</v>
       </c>
-      <c r="N86"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3347,7 +3335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3376,7 +3364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3393,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3431,7 +3419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3469,7 +3457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3488,10 +3476,10 @@
       <c r="F92">
         <v>37</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92">
         <v>37</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92">
         <v>39</v>
       </c>
       <c r="I92">
@@ -3507,7 +3495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3539,7 +3527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3568,7 +3556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3585,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -4068,35 +4056,34 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" s="1">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111">
         <v>10</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" t="s">
         <v>18</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111">
         <v>376</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111">
         <v>380</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H111">
         <v>366</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111">
         <v>69</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L111" s="1" t="s">
+      <c r="J111" t="s">
+        <v>9</v>
+      </c>
+      <c r="L111" t="s">
         <v>48</v>
       </c>
-      <c r="N111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -5124,7 +5111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -5162,7 +5149,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -5200,37 +5187,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" s="1">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147">
         <v>14</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" t="s">
         <v>8</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147">
         <v>23</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G147" t="s">
         <v>55</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="I147" t="s">
         <v>62</v>
       </c>
-      <c r="J147" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K147" s="1">
-        <v>1</v>
-      </c>
-      <c r="L147" s="1" t="s">
+      <c r="J147" t="s">
+        <v>9</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" t="s">
         <v>23</v>
       </c>
-      <c r="N147"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -5268,7 +5254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -5306,7 +5292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -5344,7 +5330,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -5379,7 +5365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -5417,7 +5403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -5455,7 +5441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -5493,7 +5479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -5531,7 +5517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -5569,7 +5555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -5598,7 +5584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -5630,7 +5616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -5659,7 +5645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -5783,7 +5769,7 @@
       <c r="H163">
         <v>22</v>
       </c>
-      <c r="I163" s="1" t="s">
+      <c r="I163" t="s">
         <v>62</v>
       </c>
       <c r="J163" t="s">
@@ -6673,127 +6659,123 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193">
         <v>17</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" t="s">
         <v>8</v>
       </c>
-      <c r="G193" s="1">
+      <c r="G193">
         <v>21</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="H193" t="s">
         <v>55</v>
       </c>
-      <c r="I193" s="1">
+      <c r="I193">
         <v>336</v>
       </c>
-      <c r="J193" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K193" s="1">
-        <v>1</v>
-      </c>
-      <c r="L193" s="1" t="s">
+      <c r="J193" t="s">
+        <v>9</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193" t="s">
         <v>17</v>
       </c>
-      <c r="N193"/>
-    </row>
-    <row r="194" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194">
         <v>17</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" t="s">
         <v>8</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E194">
         <v>0</v>
       </c>
-      <c r="G194" s="1">
+      <c r="G194">
         <v>5</v>
       </c>
-      <c r="H194" s="1">
+      <c r="H194">
         <v>13</v>
       </c>
-      <c r="I194" s="1">
+      <c r="I194">
         <v>335</v>
       </c>
-      <c r="J194" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K194" s="1">
-        <v>1</v>
-      </c>
-      <c r="L194" s="1" t="s">
+      <c r="J194" t="s">
+        <v>9</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194" t="s">
         <v>37</v>
       </c>
-      <c r="N194"/>
-    </row>
-    <row r="195" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195">
         <v>17</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" t="s">
         <v>11</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195">
         <v>33</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195">
         <v>45</v>
       </c>
-      <c r="G195" s="1">
+      <c r="G195">
         <v>28</v>
       </c>
-      <c r="H195" s="1">
+      <c r="H195">
         <v>33</v>
       </c>
-      <c r="I195" s="1">
+      <c r="I195">
         <v>369</v>
       </c>
-      <c r="J195" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K195" s="1">
-        <v>1</v>
-      </c>
-      <c r="L195" s="1" t="s">
+      <c r="J195" t="s">
+        <v>9</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195" t="s">
         <v>57</v>
       </c>
-      <c r="N195"/>
-    </row>
-    <row r="196" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>7</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196">
         <v>17</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" t="s">
         <v>12</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196">
         <v>0</v>
       </c>
-      <c r="J196" s="1">
+      <c r="J196">
         <v>0</v>
       </c>
-      <c r="K196" s="1">
+      <c r="K196">
         <v>0</v>
       </c>
-      <c r="N196"/>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -6825,7 +6807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -6860,7 +6842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -6889,7 +6871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -6918,7 +6900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -6938,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -6973,7 +6955,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -7002,7 +6984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -7037,7 +7019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -7063,7 +7045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -7089,7 +7071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -7115,7 +7097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -7368,6 +7350,9 @@
       <c r="J217" t="s">
         <v>72</v>
       </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
       <c r="L217" t="s">
         <v>37</v>
       </c>
@@ -7391,6 +7376,9 @@
       <c r="J218" t="s">
         <v>9</v>
       </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
       <c r="L218" t="s">
         <v>41</v>
       </c>
@@ -7414,6 +7402,9 @@
       <c r="J219" t="s">
         <v>9</v>
       </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
       <c r="L219" t="s">
         <v>38</v>
       </c>
@@ -7437,6 +7428,9 @@
       <c r="J220" t="s">
         <v>9</v>
       </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
       <c r="L220" t="s">
         <v>37</v>
       </c>
@@ -7460,6 +7454,9 @@
       <c r="J221" t="s">
         <v>9</v>
       </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
       <c r="L221" t="s">
         <v>19</v>
       </c>
@@ -7483,6 +7480,9 @@
       <c r="J222" t="s">
         <v>9</v>
       </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
       <c r="L222" t="s">
         <v>23</v>
       </c>
@@ -7506,6 +7506,9 @@
       <c r="J223" t="s">
         <v>9</v>
       </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
       <c r="L223" t="s">
         <v>31</v>
       </c>
@@ -7529,6 +7532,9 @@
       <c r="J224" t="s">
         <v>9</v>
       </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
       <c r="L224" t="s">
         <v>52</v>
       </c>
@@ -7552,6 +7558,9 @@
       <c r="J225" t="s">
         <v>9</v>
       </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
       <c r="L225" t="s">
         <v>17</v>
       </c>
@@ -7578,6 +7587,9 @@
       <c r="J226" t="s">
         <v>9</v>
       </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
       <c r="L226" t="s">
         <v>57</v>
       </c>
@@ -7601,6 +7613,9 @@
       <c r="J227" t="s">
         <v>9</v>
       </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
       <c r="L227" t="s">
         <v>30</v>
       </c>
@@ -7624,6 +7639,9 @@
       <c r="J228" t="s">
         <v>9</v>
       </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
       <c r="L228" t="s">
         <v>24</v>
       </c>
@@ -7647,6 +7665,9 @@
       <c r="J229" t="s">
         <v>9</v>
       </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
       <c r="L229" t="s">
         <v>29</v>
       </c>
@@ -7670,6 +7691,9 @@
       <c r="J230" t="s">
         <v>9</v>
       </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
       <c r="L230" t="s">
         <v>31</v>
       </c>
@@ -7693,6 +7717,9 @@
       <c r="J231" t="s">
         <v>9</v>
       </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
       <c r="L231" t="s">
         <v>19</v>
       </c>
@@ -7716,6 +7743,9 @@
       <c r="J232" t="s">
         <v>9</v>
       </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
       <c r="L232" t="s">
         <v>24</v>
       </c>
@@ -7739,6 +7769,9 @@
       <c r="J233" t="s">
         <v>9</v>
       </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
       <c r="L233" t="s">
         <v>30</v>
       </c>
@@ -7762,6 +7795,9 @@
       <c r="J234" t="s">
         <v>9</v>
       </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
       <c r="L234" t="s">
         <v>32</v>
       </c>
@@ -7785,6 +7821,9 @@
       <c r="J235" t="s">
         <v>9</v>
       </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
       <c r="L235" t="s">
         <v>26</v>
       </c>
@@ -7808,6 +7847,9 @@
       <c r="J236" t="s">
         <v>9</v>
       </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
       <c r="L236" t="s">
         <v>74</v>
       </c>
@@ -7831,6 +7873,9 @@
       <c r="J237" t="s">
         <v>9</v>
       </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
       <c r="L237" t="s">
         <v>75</v>
       </c>
@@ -7854,6 +7899,9 @@
       <c r="J238" t="s">
         <v>9</v>
       </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
       <c r="L238" t="s">
         <v>76</v>
       </c>
@@ -7877,6 +7925,9 @@
       <c r="J239" t="s">
         <v>9</v>
       </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
       <c r="L239" t="s">
         <v>77</v>
       </c>
@@ -7900,6 +7951,9 @@
       <c r="J240" t="s">
         <v>9</v>
       </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
       <c r="L240" t="s">
         <v>38</v>
       </c>
@@ -7923,6 +7977,9 @@
       <c r="J241" t="s">
         <v>9</v>
       </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
       <c r="L241" t="s">
         <v>27</v>
       </c>
@@ -7946,6 +8003,9 @@
       <c r="J242" t="s">
         <v>9</v>
       </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
       <c r="L242" t="s">
         <v>52</v>
       </c>
@@ -7969,6 +8029,9 @@
       <c r="J243" t="s">
         <v>9</v>
       </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
       <c r="L243" t="s">
         <v>32</v>
       </c>
@@ -7992,6 +8055,9 @@
       <c r="J244" t="s">
         <v>9</v>
       </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
       <c r="L244" t="s">
         <v>37</v>
       </c>
@@ -8015,6 +8081,9 @@
       <c r="J245" t="s">
         <v>9</v>
       </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
       <c r="L245" t="s">
         <v>23</v>
       </c>
@@ -8038,6 +8107,9 @@
       <c r="J246" t="s">
         <v>9</v>
       </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
       <c r="L246" t="s">
         <v>10</v>
       </c>
@@ -8061,6 +8133,9 @@
       <c r="J247" t="s">
         <v>9</v>
       </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
       <c r="L247" t="s">
         <v>19</v>
       </c>
@@ -8084,6 +8159,9 @@
       <c r="J248" t="s">
         <v>9</v>
       </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
       <c r="L248" t="s">
         <v>78</v>
       </c>
@@ -8107,6 +8185,9 @@
       <c r="J249" t="s">
         <v>9</v>
       </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
       <c r="L249" t="s">
         <v>79</v>
       </c>
@@ -8130,6 +8211,9 @@
       <c r="J250" t="s">
         <v>9</v>
       </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
       <c r="L250" t="s">
         <v>80</v>
       </c>
@@ -8153,6 +8237,9 @@
       <c r="J251" t="s">
         <v>9</v>
       </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
       <c r="L251" t="s">
         <v>81</v>
       </c>
@@ -8176,6 +8263,9 @@
       <c r="J252" t="s">
         <v>9</v>
       </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
       <c r="L252" t="s">
         <v>29</v>
       </c>
@@ -8199,6 +8289,9 @@
       <c r="J253" t="s">
         <v>9</v>
       </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
       <c r="L253" t="s">
         <v>25</v>
       </c>
@@ -8222,6 +8315,9 @@
       <c r="J254" t="s">
         <v>9</v>
       </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
       <c r="L254" t="s">
         <v>13</v>
       </c>
@@ -8245,6 +8341,9 @@
       <c r="J255" t="s">
         <v>9</v>
       </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
       <c r="L255" t="s">
         <v>82</v>
       </c>
@@ -8268,6 +8367,9 @@
       <c r="J256" t="s">
         <v>9</v>
       </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
       <c r="L256" t="s">
         <v>82</v>
       </c>
@@ -8294,6 +8396,9 @@
       <c r="J257" t="s">
         <v>9</v>
       </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
       <c r="L257" t="s">
         <v>57</v>
       </c>
@@ -8317,6 +8422,9 @@
       <c r="J258" t="s">
         <v>9</v>
       </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
       <c r="L258" t="s">
         <v>38</v>
       </c>
@@ -8340,6 +8448,9 @@
       <c r="J259" t="s">
         <v>9</v>
       </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
       <c r="L259" t="s">
         <v>23</v>
       </c>
@@ -8366,6 +8477,9 @@
       <c r="J260" t="s">
         <v>9</v>
       </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
       <c r="L260" t="s">
         <v>10</v>
       </c>
@@ -8389,6 +8503,9 @@
       <c r="J261" t="s">
         <v>9</v>
       </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
       <c r="L261" t="s">
         <v>41</v>
       </c>
@@ -8412,6 +8529,9 @@
       <c r="J262" t="s">
         <v>72</v>
       </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
       <c r="L262" t="s">
         <v>17</v>
       </c>
@@ -8435,6 +8555,9 @@
       <c r="J263" t="s">
         <v>9</v>
       </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
       <c r="L263" t="s">
         <v>14</v>
       </c>
@@ -8458,6 +8581,9 @@
       <c r="J264" t="s">
         <v>34</v>
       </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
       <c r="L264" t="s">
         <v>43</v>
       </c>
@@ -8481,6 +8607,9 @@
       <c r="J265" t="s">
         <v>9</v>
       </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
       <c r="L265" t="s">
         <v>19</v>
       </c>
@@ -8504,6 +8633,9 @@
       <c r="J266" t="s">
         <v>9</v>
       </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
       <c r="L266" t="s">
         <v>38</v>
       </c>
@@ -8527,6 +8659,9 @@
       <c r="J267" t="s">
         <v>9</v>
       </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
       <c r="L267" t="s">
         <v>17</v>
       </c>
@@ -8550,6 +8685,9 @@
       <c r="J268" t="s">
         <v>9</v>
       </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
       <c r="L268" t="s">
         <v>20</v>
       </c>
@@ -8573,6 +8711,9 @@
       <c r="J269" t="s">
         <v>9</v>
       </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
       <c r="L269" t="s">
         <v>13</v>
       </c>
@@ -8596,6 +8737,9 @@
       <c r="J270" t="s">
         <v>9</v>
       </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
       <c r="L270" t="s">
         <v>38</v>
       </c>
@@ -8619,6 +8763,9 @@
       <c r="J271" t="s">
         <v>9</v>
       </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
       <c r="L271" t="s">
         <v>82</v>
       </c>
@@ -8642,6 +8789,9 @@
       <c r="J272" t="s">
         <v>9</v>
       </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
       <c r="L272" t="s">
         <v>43</v>
       </c>
@@ -8665,6 +8815,9 @@
       <c r="J273" t="s">
         <v>9</v>
       </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
       <c r="L273" t="s">
         <v>19</v>
       </c>
@@ -8688,6 +8841,9 @@
       <c r="J274" t="s">
         <v>9</v>
       </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
       <c r="L274" t="s">
         <v>23</v>
       </c>
@@ -8711,6 +8867,9 @@
       <c r="J275" t="s">
         <v>9</v>
       </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
       <c r="L275" t="s">
         <v>27</v>
       </c>
@@ -8734,6 +8893,9 @@
       <c r="J276" t="s">
         <v>9</v>
       </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
       <c r="L276" t="s">
         <v>52</v>
       </c>
@@ -8757,6 +8919,9 @@
       <c r="J277" t="s">
         <v>9</v>
       </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
       <c r="L277" t="s">
         <v>37</v>
       </c>
@@ -8780,6 +8945,9 @@
       <c r="J278" t="s">
         <v>9</v>
       </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
       <c r="L278" t="s">
         <v>82</v>
       </c>
@@ -8803,6 +8971,9 @@
       <c r="J279" t="s">
         <v>9</v>
       </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
       <c r="L279" t="s">
         <v>25</v>
       </c>
@@ -8826,6 +8997,9 @@
       <c r="J280" t="s">
         <v>34</v>
       </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
       <c r="L280" t="s">
         <v>57</v>
       </c>
@@ -8849,6 +9023,9 @@
       <c r="J281" t="s">
         <v>34</v>
       </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
       <c r="L281" t="s">
         <v>30</v>
       </c>
@@ -8872,6 +9049,9 @@
       <c r="J282" t="s">
         <v>9</v>
       </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
       <c r="L282" t="s">
         <v>23</v>
       </c>
@@ -8895,6 +9075,9 @@
       <c r="J283" t="s">
         <v>9</v>
       </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
       <c r="L283" t="s">
         <v>27</v>
       </c>
@@ -8918,6 +9101,9 @@
       <c r="J284" t="s">
         <v>9</v>
       </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
       <c r="L284" t="s">
         <v>36</v>
       </c>
@@ -8941,6 +9127,9 @@
       <c r="J285" t="s">
         <v>9</v>
       </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
       <c r="L285" t="s">
         <v>13</v>
       </c>
@@ -8964,6 +9153,9 @@
       <c r="J286" t="s">
         <v>9</v>
       </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
       <c r="L286" t="s">
         <v>19</v>
       </c>
@@ -8987,6 +9179,9 @@
       <c r="J287" t="s">
         <v>9</v>
       </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
       <c r="L287" t="s">
         <v>17</v>
       </c>
@@ -9010,6 +9205,9 @@
       <c r="J288" t="s">
         <v>9</v>
       </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
       <c r="L288" t="s">
         <v>30</v>
       </c>
@@ -9033,6 +9231,9 @@
       <c r="J289" t="s">
         <v>9</v>
       </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
       <c r="L289" t="s">
         <v>29</v>
       </c>
@@ -9056,6 +9257,9 @@
       <c r="J290" t="s">
         <v>9</v>
       </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
       <c r="L290" t="s">
         <v>24</v>
       </c>
@@ -9079,6 +9283,9 @@
       <c r="J291" t="s">
         <v>9</v>
       </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
       <c r="L291" t="s">
         <v>82</v>
       </c>
@@ -9102,6 +9309,9 @@
       <c r="J292" t="s">
         <v>9</v>
       </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
       <c r="L292" t="s">
         <v>39</v>
       </c>
@@ -9125,6 +9335,9 @@
       <c r="J293" t="s">
         <v>9</v>
       </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
       <c r="L293" t="s">
         <v>24</v>
       </c>
@@ -9148,6 +9361,9 @@
       <c r="J294" t="s">
         <v>9</v>
       </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
       <c r="L294" t="s">
         <v>29</v>
       </c>
@@ -9171,6 +9387,9 @@
       <c r="J295" t="s">
         <v>9</v>
       </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
       <c r="L295" t="s">
         <v>30</v>
       </c>
@@ -9194,6 +9413,9 @@
       <c r="J296" t="s">
         <v>9</v>
       </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
       <c r="L296" t="s">
         <v>23</v>
       </c>
@@ -9217,6 +9439,9 @@
       <c r="J297" t="s">
         <v>9</v>
       </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
       <c r="L297" t="s">
         <v>24</v>
       </c>
@@ -9240,6 +9465,9 @@
       <c r="J298" t="s">
         <v>9</v>
       </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
       <c r="L298" t="s">
         <v>38</v>
       </c>
@@ -9263,6 +9491,9 @@
       <c r="J299" t="s">
         <v>9</v>
       </c>
+      <c r="K299">
+        <v>1</v>
+      </c>
       <c r="L299" t="s">
         <v>52</v>
       </c>
@@ -9286,6 +9517,9 @@
       <c r="J300" t="s">
         <v>9</v>
       </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
       <c r="L300" t="s">
         <v>23</v>
       </c>
@@ -9309,6 +9543,9 @@
       <c r="J301" t="s">
         <v>9</v>
       </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
       <c r="L301" t="s">
         <v>50</v>
       </c>
@@ -9332,6 +9569,9 @@
       <c r="J302" t="s">
         <v>9</v>
       </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
       <c r="L302" t="s">
         <v>38</v>
       </c>
@@ -9355,6 +9595,9 @@
       <c r="J303" t="s">
         <v>9</v>
       </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
       <c r="L303" t="s">
         <v>17</v>
       </c>
@@ -9378,6 +9621,9 @@
       <c r="J304" t="s">
         <v>9</v>
       </c>
+      <c r="K304">
+        <v>1</v>
+      </c>
       <c r="L304" t="s">
         <v>20</v>
       </c>
@@ -9401,6 +9647,9 @@
       <c r="J305" t="s">
         <v>34</v>
       </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
       <c r="L305" t="s">
         <v>37</v>
       </c>
@@ -9424,6 +9673,9 @@
       <c r="J306" t="s">
         <v>9</v>
       </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
       <c r="L306" t="s">
         <v>26</v>
       </c>
@@ -9447,6 +9699,9 @@
       <c r="J307" t="s">
         <v>9</v>
       </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
       <c r="L307" t="s">
         <v>17</v>
       </c>
@@ -9470,6 +9725,9 @@
       <c r="J308" t="s">
         <v>9</v>
       </c>
+      <c r="K308">
+        <v>1</v>
+      </c>
       <c r="L308" t="s">
         <v>13</v>
       </c>
@@ -9493,6 +9751,9 @@
       <c r="J309" t="s">
         <v>9</v>
       </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
       <c r="L309" t="s">
         <v>41</v>
       </c>
@@ -9516,6 +9777,9 @@
       <c r="J310" t="s">
         <v>9</v>
       </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
       <c r="L310" t="s">
         <v>37</v>
       </c>
@@ -9539,6 +9803,9 @@
       <c r="J311" t="s">
         <v>9</v>
       </c>
+      <c r="K311">
+        <v>1</v>
+      </c>
       <c r="L311" t="s">
         <v>57</v>
       </c>
@@ -9562,6 +9829,9 @@
       <c r="J312" t="s">
         <v>9</v>
       </c>
+      <c r="K312">
+        <v>1</v>
+      </c>
       <c r="L312" t="s">
         <v>19</v>
       </c>
@@ -9585,6 +9855,9 @@
       <c r="J313" t="s">
         <v>9</v>
       </c>
+      <c r="K313">
+        <v>1</v>
+      </c>
       <c r="L313" t="s">
         <v>27</v>
       </c>
@@ -9608,6 +9881,9 @@
       <c r="J314" t="s">
         <v>9</v>
       </c>
+      <c r="K314">
+        <v>1</v>
+      </c>
       <c r="L314" t="s">
         <v>22</v>
       </c>
@@ -9631,6 +9907,9 @@
       <c r="J315" t="s">
         <v>9</v>
       </c>
+      <c r="K315">
+        <v>1</v>
+      </c>
       <c r="L315" t="s">
         <v>43</v>
       </c>
@@ -9654,6 +9933,9 @@
       <c r="J316" t="s">
         <v>9</v>
       </c>
+      <c r="K316">
+        <v>1</v>
+      </c>
       <c r="L316" t="s">
         <v>20</v>
       </c>
@@ -9677,6 +9959,9 @@
       <c r="J317" t="s">
         <v>9</v>
       </c>
+      <c r="K317">
+        <v>1</v>
+      </c>
       <c r="L317" t="s">
         <v>30</v>
       </c>
@@ -9700,6 +9985,9 @@
       <c r="J318" t="s">
         <v>9</v>
       </c>
+      <c r="K318">
+        <v>1</v>
+      </c>
       <c r="L318" t="s">
         <v>57</v>
       </c>
@@ -9723,6 +10011,9 @@
       <c r="J319" t="s">
         <v>9</v>
       </c>
+      <c r="K319">
+        <v>1</v>
+      </c>
       <c r="L319" t="s">
         <v>17</v>
       </c>
@@ -9746,6 +10037,9 @@
       <c r="J320" t="s">
         <v>9</v>
       </c>
+      <c r="K320">
+        <v>1</v>
+      </c>
       <c r="L320" t="s">
         <v>24</v>
       </c>
@@ -9769,6 +10063,9 @@
       <c r="J321" t="s">
         <v>9</v>
       </c>
+      <c r="K321">
+        <v>1</v>
+      </c>
       <c r="L321" t="s">
         <v>41</v>
       </c>
@@ -9792,6 +10089,9 @@
       <c r="J322" t="s">
         <v>9</v>
       </c>
+      <c r="K322">
+        <v>1</v>
+      </c>
       <c r="L322" t="s">
         <v>20</v>
       </c>
@@ -9815,6 +10115,9 @@
       <c r="J323" t="s">
         <v>9</v>
       </c>
+      <c r="K323">
+        <v>1</v>
+      </c>
       <c r="L323" t="s">
         <v>14</v>
       </c>
@@ -9838,6 +10141,9 @@
       <c r="J324" t="s">
         <v>9</v>
       </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
       <c r="L324" t="s">
         <v>41</v>
       </c>
@@ -9861,6 +10167,9 @@
       <c r="J325" t="s">
         <v>9</v>
       </c>
+      <c r="K325">
+        <v>1</v>
+      </c>
       <c r="L325" t="s">
         <v>23</v>
       </c>
@@ -9884,6 +10193,9 @@
       <c r="J326" t="s">
         <v>9</v>
       </c>
+      <c r="K326">
+        <v>1</v>
+      </c>
       <c r="L326" t="s">
         <v>38</v>
       </c>
@@ -9907,6 +10219,9 @@
       <c r="J327" t="s">
         <v>9</v>
       </c>
+      <c r="K327">
+        <v>1</v>
+      </c>
       <c r="L327" t="s">
         <v>19</v>
       </c>
@@ -9933,6 +10248,9 @@
       <c r="J328" t="s">
         <v>9</v>
       </c>
+      <c r="K328">
+        <v>1</v>
+      </c>
       <c r="L328" t="s">
         <v>23</v>
       </c>
@@ -9959,6 +10277,9 @@
       <c r="J329" t="s">
         <v>9</v>
       </c>
+      <c r="K329">
+        <v>1</v>
+      </c>
       <c r="L329" t="s">
         <v>27</v>
       </c>
@@ -9982,6 +10303,9 @@
       <c r="J330" t="s">
         <v>9</v>
       </c>
+      <c r="K330">
+        <v>1</v>
+      </c>
       <c r="L330" t="s">
         <v>20</v>
       </c>
@@ -10005,6 +10329,9 @@
       <c r="J331" t="s">
         <v>9</v>
       </c>
+      <c r="K331">
+        <v>1</v>
+      </c>
       <c r="L331" t="s">
         <v>82</v>
       </c>
@@ -10028,6 +10355,9 @@
       <c r="J332" t="s">
         <v>9</v>
       </c>
+      <c r="K332">
+        <v>1</v>
+      </c>
       <c r="L332" t="s">
         <v>17</v>
       </c>
@@ -10051,6 +10381,9 @@
       <c r="J333" t="s">
         <v>9</v>
       </c>
+      <c r="K333">
+        <v>1</v>
+      </c>
       <c r="L333" t="s">
         <v>20</v>
       </c>
@@ -10074,6 +10407,9 @@
       <c r="J334" t="s">
         <v>9</v>
       </c>
+      <c r="K334">
+        <v>1</v>
+      </c>
       <c r="L334" t="s">
         <v>14</v>
       </c>
@@ -10097,6 +10433,9 @@
       <c r="J335" t="s">
         <v>9</v>
       </c>
+      <c r="K335">
+        <v>1</v>
+      </c>
       <c r="L335" t="s">
         <v>38</v>
       </c>
@@ -10120,6 +10459,9 @@
       <c r="J336" t="s">
         <v>9</v>
       </c>
+      <c r="K336">
+        <v>1</v>
+      </c>
       <c r="L336" t="s">
         <v>82</v>
       </c>
@@ -10143,6 +10485,9 @@
       <c r="J337" t="s">
         <v>9</v>
       </c>
+      <c r="K337">
+        <v>1</v>
+      </c>
       <c r="L337" t="s">
         <v>17</v>
       </c>
@@ -10166,6 +10511,9 @@
       <c r="J338" t="s">
         <v>9</v>
       </c>
+      <c r="K338">
+        <v>1</v>
+      </c>
       <c r="L338" t="s">
         <v>41</v>
       </c>
@@ -10189,6 +10537,9 @@
       <c r="J339" t="s">
         <v>9</v>
       </c>
+      <c r="K339">
+        <v>1</v>
+      </c>
       <c r="L339" t="s">
         <v>23</v>
       </c>
@@ -10212,6 +10563,9 @@
       <c r="J340" t="s">
         <v>9</v>
       </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
       <c r="L340" t="s">
         <v>52</v>
       </c>
@@ -10235,6 +10589,9 @@
       <c r="J341" t="s">
         <v>9</v>
       </c>
+      <c r="K341">
+        <v>1</v>
+      </c>
       <c r="L341" t="s">
         <v>82</v>
       </c>
@@ -10258,6 +10615,9 @@
       <c r="J342" t="s">
         <v>9</v>
       </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
       <c r="L342" t="s">
         <v>10</v>
       </c>
@@ -10281,6 +10641,9 @@
       <c r="J343" t="s">
         <v>9</v>
       </c>
+      <c r="K343">
+        <v>1</v>
+      </c>
       <c r="L343" t="s">
         <v>38</v>
       </c>
@@ -10304,6 +10667,9 @@
       <c r="J344" t="s">
         <v>9</v>
       </c>
+      <c r="K344">
+        <v>1</v>
+      </c>
       <c r="L344" t="s">
         <v>14</v>
       </c>
@@ -10327,6 +10693,9 @@
       <c r="J345" t="s">
         <v>9</v>
       </c>
+      <c r="K345">
+        <v>1</v>
+      </c>
       <c r="L345" t="s">
         <v>41</v>
       </c>
@@ -10350,6 +10719,9 @@
       <c r="J346" t="s">
         <v>9</v>
       </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
       <c r="L346" t="s">
         <v>20</v>
       </c>
@@ -10373,6 +10745,9 @@
       <c r="J347" t="s">
         <v>9</v>
       </c>
+      <c r="K347">
+        <v>1</v>
+      </c>
       <c r="L347" t="s">
         <v>27</v>
       </c>
@@ -10396,6 +10771,9 @@
       <c r="J348" t="s">
         <v>9</v>
       </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
       <c r="L348" t="s">
         <v>17</v>
       </c>
@@ -10419,6 +10797,9 @@
       <c r="J349" t="s">
         <v>9</v>
       </c>
+      <c r="K349">
+        <v>1</v>
+      </c>
       <c r="L349" t="s">
         <v>25</v>
       </c>
@@ -10442,6 +10823,9 @@
       <c r="J350" t="s">
         <v>9</v>
       </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
       <c r="L350" t="s">
         <v>52</v>
       </c>
@@ -10465,6 +10849,9 @@
       <c r="J351" t="s">
         <v>9</v>
       </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
       <c r="L351" t="s">
         <v>38</v>
       </c>
@@ -10488,6 +10875,9 @@
       <c r="J352" t="s">
         <v>9</v>
       </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
       <c r="L352" t="s">
         <v>22</v>
       </c>
@@ -10511,6 +10901,9 @@
       <c r="J353" t="s">
         <v>9</v>
       </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
       <c r="L353" t="s">
         <v>82</v>
       </c>
@@ -10534,6 +10927,9 @@
       <c r="J354" t="s">
         <v>9</v>
       </c>
+      <c r="K354">
+        <v>1</v>
+      </c>
       <c r="L354" t="s">
         <v>25</v>
       </c>
@@ -10557,6 +10953,9 @@
       <c r="J355" t="s">
         <v>9</v>
       </c>
+      <c r="K355">
+        <v>1</v>
+      </c>
       <c r="L355" t="s">
         <v>26</v>
       </c>
@@ -10580,6 +10979,9 @@
       <c r="J356" t="s">
         <v>9</v>
       </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
       <c r="L356" t="s">
         <v>23</v>
       </c>
@@ -10603,6 +11005,9 @@
       <c r="J357" t="s">
         <v>9</v>
       </c>
+      <c r="K357">
+        <v>1</v>
+      </c>
       <c r="L357" t="s">
         <v>27</v>
       </c>
@@ -10626,6 +11031,9 @@
       <c r="J358" t="s">
         <v>9</v>
       </c>
+      <c r="K358">
+        <v>1</v>
+      </c>
       <c r="L358" t="s">
         <v>14</v>
       </c>
@@ -10649,6 +11057,9 @@
       <c r="J359" t="s">
         <v>9</v>
       </c>
+      <c r="K359">
+        <v>1</v>
+      </c>
       <c r="L359" t="s">
         <v>20</v>
       </c>
@@ -10672,6 +11083,9 @@
       <c r="J360" t="s">
         <v>9</v>
       </c>
+      <c r="K360">
+        <v>1</v>
+      </c>
       <c r="L360" t="s">
         <v>32</v>
       </c>
@@ -10695,6 +11109,9 @@
       <c r="J361" t="s">
         <v>9</v>
       </c>
+      <c r="K361">
+        <v>1</v>
+      </c>
       <c r="L361" t="s">
         <v>25</v>
       </c>
@@ -10718,6 +11135,9 @@
       <c r="J362" t="s">
         <v>9</v>
       </c>
+      <c r="K362">
+        <v>1</v>
+      </c>
       <c r="L362" t="s">
         <v>24</v>
       </c>
@@ -10741,6 +11161,9 @@
       <c r="J363" t="s">
         <v>9</v>
       </c>
+      <c r="K363">
+        <v>1</v>
+      </c>
       <c r="L363" t="s">
         <v>57</v>
       </c>
@@ -10764,6 +11187,9 @@
       <c r="J364" t="s">
         <v>9</v>
       </c>
+      <c r="K364">
+        <v>1</v>
+      </c>
       <c r="L364" t="s">
         <v>19</v>
       </c>
@@ -10787,6 +11213,9 @@
       <c r="J365" t="s">
         <v>9</v>
       </c>
+      <c r="K365">
+        <v>1</v>
+      </c>
       <c r="L365" t="s">
         <v>82</v>
       </c>
@@ -10810,6 +11239,9 @@
       <c r="J366" t="s">
         <v>9</v>
       </c>
+      <c r="K366">
+        <v>1</v>
+      </c>
       <c r="L366" t="s">
         <v>10</v>
       </c>
@@ -10833,6 +11265,9 @@
       <c r="J367" t="s">
         <v>9</v>
       </c>
+      <c r="K367">
+        <v>1</v>
+      </c>
       <c r="L367" t="s">
         <v>29</v>
       </c>
@@ -10856,6 +11291,9 @@
       <c r="J368" t="s">
         <v>9</v>
       </c>
+      <c r="K368">
+        <v>1</v>
+      </c>
       <c r="L368" t="s">
         <v>41</v>
       </c>
@@ -10879,6 +11317,9 @@
       <c r="J369" t="s">
         <v>9</v>
       </c>
+      <c r="K369">
+        <v>1</v>
+      </c>
       <c r="L369" t="s">
         <v>14</v>
       </c>
@@ -10902,6 +11343,9 @@
       <c r="J370" t="s">
         <v>9</v>
       </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
       <c r="L370" t="s">
         <v>38</v>
       </c>
@@ -10925,6 +11369,9 @@
       <c r="J371" t="s">
         <v>9</v>
       </c>
+      <c r="K371">
+        <v>1</v>
+      </c>
       <c r="L371" t="s">
         <v>13</v>
       </c>
@@ -10948,6 +11395,9 @@
       <c r="J372" t="s">
         <v>9</v>
       </c>
+      <c r="K372">
+        <v>1</v>
+      </c>
       <c r="L372" t="s">
         <v>23</v>
       </c>
@@ -10970,6 +11420,9 @@
       </c>
       <c r="J373" t="s">
         <v>9</v>
+      </c>
+      <c r="K373">
+        <v>1</v>
       </c>
       <c r="L373" t="s">
         <v>36</v>
